--- a/tests/config/tests.xlsx
+++ b/tests/config/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-2204\home\manuelpadilla\sources\reposUbuntu\MAYZ\mayz-contracts-v1.0.5\tests\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB931B6C-A1CE-4AFC-A44C-DF204DD9573B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3922D5-D392-46A1-A470-632CCD6E0B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="4" xr2:uid="{8F724349-9017-4B83-8F46-BA146443B4B6}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="GENERIC" sheetId="1" r:id="rId1"/>
     <sheet name="PROTOCOL" sheetId="6" r:id="rId2"/>
     <sheet name="FUND" sheetId="8" r:id="rId3"/>
-    <sheet name="INVESTUNIT" sheetId="9" r:id="rId4"/>
-    <sheet name="FUNDHOLDING" sheetId="7" r:id="rId5"/>
-    <sheet name="SWAPOFFER" sheetId="5" r:id="rId6"/>
+    <sheet name="INVEST UNIT" sheetId="9" r:id="rId4"/>
+    <sheet name="FUND HOLDING" sheetId="7" r:id="rId5"/>
+    <sheet name="SWAP OFFER" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6110" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6117" uniqueCount="481">
   <si>
     <t>ANY</t>
   </si>
@@ -1469,6 +1469,18 @@
   </si>
   <si>
     <t>not isCorrect_Output_InvestUnit_Value_NotChanged</t>
+  </si>
+  <si>
+    <t>not len alterCommissionsFT == cantOutputs</t>
+  </si>
+  <si>
+    <t>not isCorrect_Outputs_Commissions_SameTotal</t>
+  </si>
+  <si>
+    <t>not isCorrect_Output_FundHolding_Values</t>
+  </si>
+  <si>
+    <t>Expected exactly one Fund input ref</t>
   </si>
 </sst>
 </file>
@@ -1983,7 +1995,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -1991,7 +2003,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -7186,188 +7197,188 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="B40" s="7" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="b">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
         <v>340</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" t="s">
         <v>319</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" t="s">
         <v>341</v>
       </c>
-      <c r="E40" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" s="7" t="s">
+      <c r="E40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" t="s">
         <v>390</v>
       </c>
-      <c r="G40" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="B41" s="7" t="s">
+      <c r="G40" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="b">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
         <v>340</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" t="s">
         <v>319</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" t="s">
         <v>341</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F41" s="7" t="s">
+      <c r="E41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" t="s">
         <v>470</v>
       </c>
-      <c r="G41" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="B42" s="7" t="s">
+      <c r="G41" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="b">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
         <v>340</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" t="s">
         <v>319</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" t="s">
         <v>341</v>
       </c>
-      <c r="E42" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F42" s="7" t="s">
+      <c r="E42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" t="s">
         <v>393</v>
       </c>
-      <c r="G42" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="B43" s="7" t="s">
+      <c r="G42" t="s">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="b">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
         <v>340</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" t="s">
         <v>319</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" t="s">
         <v>341</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43" s="7" t="s">
+      <c r="E43" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" t="s">
         <v>394</v>
       </c>
-      <c r="G43" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="B44" s="7" t="s">
+      <c r="G43" t="s">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
         <v>340</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" t="s">
         <v>319</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" t="s">
         <v>341</v>
       </c>
-      <c r="E44" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F44" s="7" t="s">
+      <c r="E44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" t="s">
         <v>383</v>
       </c>
-      <c r="G44" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="B45" s="7" t="s">
+      <c r="G44" t="s">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
         <v>340</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" t="s">
         <v>319</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" t="s">
         <v>341</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F45" s="7" t="s">
+      <c r="E45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" t="s">
         <v>384</v>
       </c>
-      <c r="G45" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="B46" s="7" t="s">
+      <c r="G45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="b">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
         <v>340</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" t="s">
         <v>319</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" t="s">
         <v>341</v>
       </c>
-      <c r="E46" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46" s="7" t="s">
+      <c r="E46" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" t="s">
         <v>385</v>
       </c>
-      <c r="G46" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J46" s="7" t="s">
+      <c r="G46" t="s">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
+        <v>2</v>
+      </c>
+      <c r="J46" t="s">
         <v>29</v>
       </c>
     </row>
@@ -12604,193 +12615,191 @@
         <v>29</v>
       </c>
     </row>
-    <row r="265" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="266" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A266" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="B266" s="7" t="s">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A266" t="b">
+        <v>1</v>
+      </c>
+      <c r="B266" t="s">
         <v>340</v>
       </c>
-      <c r="C266" s="7" t="s">
+      <c r="C266" t="s">
         <v>359</v>
       </c>
-      <c r="D266" s="7" t="s">
+      <c r="D266" t="s">
         <v>374</v>
       </c>
-      <c r="E266" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F266" s="7" t="s">
+      <c r="E266" t="s">
+        <v>21</v>
+      </c>
+      <c r="F266" t="s">
         <v>390</v>
       </c>
-      <c r="G266" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I266" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A267" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="B267" s="7" t="s">
+      <c r="G266" t="s">
+        <v>1</v>
+      </c>
+      <c r="I266" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A267" t="b">
+        <v>1</v>
+      </c>
+      <c r="B267" t="s">
         <v>340</v>
       </c>
-      <c r="C267" s="7" t="s">
+      <c r="C267" t="s">
         <v>359</v>
       </c>
-      <c r="D267" s="7" t="s">
+      <c r="D267" t="s">
         <v>374</v>
       </c>
-      <c r="E267" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F267" s="7" t="s">
+      <c r="E267" t="s">
+        <v>21</v>
+      </c>
+      <c r="F267" t="s">
         <v>470</v>
       </c>
-      <c r="G267" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I267" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A268" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="B268" s="7" t="s">
+      <c r="G267" t="s">
+        <v>1</v>
+      </c>
+      <c r="I267" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A268" t="b">
+        <v>1</v>
+      </c>
+      <c r="B268" t="s">
         <v>340</v>
       </c>
-      <c r="C268" s="7" t="s">
+      <c r="C268" t="s">
         <v>359</v>
       </c>
-      <c r="D268" s="7" t="s">
+      <c r="D268" t="s">
         <v>374</v>
       </c>
-      <c r="E268" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F268" s="7" t="s">
+      <c r="E268" t="s">
+        <v>21</v>
+      </c>
+      <c r="F268" t="s">
         <v>393</v>
       </c>
-      <c r="G268" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I268" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A269" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="B269" s="7" t="s">
+      <c r="G268" t="s">
+        <v>1</v>
+      </c>
+      <c r="I268" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A269" t="b">
+        <v>1</v>
+      </c>
+      <c r="B269" t="s">
         <v>340</v>
       </c>
-      <c r="C269" s="7" t="s">
+      <c r="C269" t="s">
         <v>359</v>
       </c>
-      <c r="D269" s="7" t="s">
+      <c r="D269" t="s">
         <v>374</v>
       </c>
-      <c r="E269" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F269" s="7" t="s">
+      <c r="E269" t="s">
+        <v>21</v>
+      </c>
+      <c r="F269" t="s">
         <v>394</v>
       </c>
-      <c r="G269" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I269" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A270" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="B270" s="7" t="s">
+      <c r="G269" t="s">
+        <v>1</v>
+      </c>
+      <c r="I269" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A270" t="b">
+        <v>1</v>
+      </c>
+      <c r="B270" t="s">
         <v>340</v>
       </c>
-      <c r="C270" s="7" t="s">
+      <c r="C270" t="s">
         <v>359</v>
       </c>
-      <c r="D270" s="7" t="s">
+      <c r="D270" t="s">
         <v>374</v>
       </c>
-      <c r="E270" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F270" s="7" t="s">
+      <c r="E270" t="s">
+        <v>21</v>
+      </c>
+      <c r="F270" t="s">
         <v>383</v>
       </c>
-      <c r="G270" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I270" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A271" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="B271" s="7" t="s">
+      <c r="G270" t="s">
+        <v>1</v>
+      </c>
+      <c r="I270" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A271" t="b">
+        <v>1</v>
+      </c>
+      <c r="B271" t="s">
         <v>340</v>
       </c>
-      <c r="C271" s="7" t="s">
+      <c r="C271" t="s">
         <v>359</v>
       </c>
-      <c r="D271" s="7" t="s">
+      <c r="D271" t="s">
         <v>374</v>
       </c>
-      <c r="E271" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F271" s="7" t="s">
+      <c r="E271" t="s">
+        <v>21</v>
+      </c>
+      <c r="F271" t="s">
         <v>384</v>
       </c>
-      <c r="G271" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I271" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A272" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="B272" s="7" t="s">
+      <c r="G271" t="s">
+        <v>1</v>
+      </c>
+      <c r="I271" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A272" t="b">
+        <v>1</v>
+      </c>
+      <c r="B272" t="s">
         <v>340</v>
       </c>
-      <c r="C272" s="7" t="s">
+      <c r="C272" t="s">
         <v>359</v>
       </c>
-      <c r="D272" s="7" t="s">
+      <c r="D272" t="s">
         <v>374</v>
       </c>
-      <c r="E272" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F272" s="7" t="s">
+      <c r="E272" t="s">
+        <v>21</v>
+      </c>
+      <c r="F272" t="s">
         <v>385</v>
       </c>
-      <c r="G272" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I272" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J272" s="7" t="s">
+      <c r="G272" t="s">
+        <v>1</v>
+      </c>
+      <c r="I272" t="s">
+        <v>2</v>
+      </c>
+      <c r="J272" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="273" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="274" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="b">
         <v>1</v>
@@ -14341,510 +14350,499 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="B60" s="7" t="s">
+      <c r="A60" t="b">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
         <v>340</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" t="s">
         <v>380</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" t="s">
         <v>471</v>
       </c>
-      <c r="E60" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F60" s="7" t="s">
+      <c r="E60" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" t="s">
         <v>209</v>
       </c>
-      <c r="G60" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7" t="s">
+      <c r="G60" t="s">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="B61" s="7" t="s">
+      <c r="A61" t="b">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
         <v>340</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" t="s">
         <v>380</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" t="s">
         <v>471</v>
       </c>
-      <c r="E61" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F61" s="7" t="s">
+      <c r="E61" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" t="s">
         <v>211</v>
       </c>
-      <c r="G61" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7" t="s">
+      <c r="G61" t="s">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="B62" s="7" t="s">
+      <c r="A62" t="b">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
         <v>340</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" t="s">
         <v>380</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" t="s">
         <v>471</v>
       </c>
-      <c r="E62" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F62" s="7" t="s">
+      <c r="E62" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" t="s">
         <v>342</v>
       </c>
-      <c r="G62" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7" t="s">
+      <c r="G62" t="s">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="B63" s="7" t="s">
+      <c r="A63" t="b">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
         <v>340</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" t="s">
         <v>380</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" t="s">
         <v>471</v>
       </c>
-      <c r="E63" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F63" s="7" t="s">
+      <c r="E63" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" t="s">
         <v>218</v>
       </c>
-      <c r="G63" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7" t="s">
+      <c r="G63" t="s">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="B64" s="7" t="s">
+      <c r="A64" t="b">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
         <v>340</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" t="s">
         <v>380</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" t="s">
         <v>471</v>
       </c>
-      <c r="E64" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F64" s="7" t="s">
+      <c r="E64" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" t="s">
         <v>219</v>
       </c>
-      <c r="G64" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="B65" s="7" t="s">
+      <c r="G64" t="s">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" t="b">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
         <v>340</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" t="s">
         <v>380</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" t="s">
         <v>471</v>
       </c>
-      <c r="E65" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F65" s="7" t="s">
+      <c r="E65" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" t="s">
         <v>220</v>
       </c>
-      <c r="G65" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I65" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J65" s="7" t="s">
+      <c r="G65" t="s">
+        <v>1</v>
+      </c>
+      <c r="I65" t="s">
+        <v>2</v>
+      </c>
+      <c r="J65" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="B67" s="7" t="s">
+      <c r="A67" t="b">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
         <v>340</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" t="s">
         <v>380</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" t="s">
         <v>471</v>
       </c>
-      <c r="E67" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F67" s="7" t="s">
+      <c r="E67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" t="s">
         <v>393</v>
       </c>
-      <c r="G67" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7" t="s">
+      <c r="G67" t="s">
+        <v>1</v>
+      </c>
+      <c r="I67" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="B68" s="7" t="s">
+      <c r="A68" t="b">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
         <v>340</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" t="s">
         <v>380</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" t="s">
         <v>471</v>
       </c>
-      <c r="E68" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F68" s="7" t="s">
+      <c r="E68" t="s">
+        <v>21</v>
+      </c>
+      <c r="F68" t="s">
         <v>394</v>
       </c>
-      <c r="G68" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7" t="s">
+      <c r="G68" t="s">
+        <v>1</v>
+      </c>
+      <c r="I68" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="B69" s="7" t="s">
+      <c r="A69" t="b">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
         <v>340</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" t="s">
         <v>380</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" t="s">
         <v>471</v>
       </c>
-      <c r="E69" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F69" s="7" t="s">
+      <c r="E69" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69" t="s">
         <v>383</v>
       </c>
-      <c r="G69" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="B70" s="7" t="s">
+      <c r="G69" t="s">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" t="b">
+        <v>1</v>
+      </c>
+      <c r="B70" t="s">
         <v>340</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" t="s">
         <v>380</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" t="s">
         <v>471</v>
       </c>
-      <c r="E70" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F70" s="7" t="s">
+      <c r="E70" t="s">
+        <v>21</v>
+      </c>
+      <c r="F70" t="s">
         <v>385</v>
       </c>
-      <c r="G70" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I70" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J70" s="7" t="s">
+      <c r="G70" t="s">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>2</v>
+      </c>
+      <c r="J70" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="B72" s="7" t="s">
+      <c r="A72" t="b">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
         <v>340</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" t="s">
         <v>380</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" t="s">
         <v>471</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" t="s">
         <v>52</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F72" t="s">
         <v>333</v>
       </c>
-      <c r="G72" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H72" s="7" t="s">
+      <c r="G72" t="s">
+        <v>6</v>
+      </c>
+      <c r="H72" t="s">
         <v>472</v>
       </c>
-      <c r="I72" s="7" t="s">
+      <c r="I72" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="B73" s="7" t="s">
+      <c r="A73" t="b">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
         <v>340</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" t="s">
         <v>380</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" t="s">
         <v>471</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" t="s">
         <v>52</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F73" t="s">
         <v>335</v>
       </c>
-      <c r="G73" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H73" s="7" t="s">
+      <c r="G73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73" t="s">
         <v>472</v>
       </c>
-      <c r="I73" s="7" t="s">
+      <c r="I73" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="B74" s="7" t="s">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" t="b">
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
         <v>340</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" t="s">
         <v>380</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" t="s">
         <v>471</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" t="s">
         <v>52</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F74" t="s">
         <v>331</v>
       </c>
-      <c r="G74" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I74" s="7" t="s">
+      <c r="G74" t="s">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="B75" s="7" t="s">
+      <c r="A75" t="b">
+        <v>1</v>
+      </c>
+      <c r="B75" t="s">
         <v>340</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" t="s">
         <v>380</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" t="s">
         <v>471</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E75" t="s">
         <v>52</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="F75" t="s">
         <v>338</v>
       </c>
-      <c r="G75" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H75" s="7" t="s">
+      <c r="G75" t="s">
+        <v>6</v>
+      </c>
+      <c r="H75" t="s">
         <v>473</v>
       </c>
-      <c r="I75" s="7" t="s">
+      <c r="I75" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="B76" s="7" t="s">
+      <c r="A76" t="b">
+        <v>1</v>
+      </c>
+      <c r="B76" t="s">
         <v>340</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" t="s">
         <v>380</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D76" t="s">
         <v>471</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E76" t="s">
         <v>52</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="F76" t="s">
         <v>339</v>
       </c>
-      <c r="G76" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H76" s="7" t="s">
+      <c r="G76" t="s">
+        <v>6</v>
+      </c>
+      <c r="H76" t="s">
         <v>473</v>
       </c>
-      <c r="I76" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="B77" s="7" t="s">
+      <c r="I76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" t="b">
+        <v>1</v>
+      </c>
+      <c r="B77" t="s">
         <v>340</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" t="s">
         <v>380</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" t="s">
         <v>471</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="E77" t="s">
         <v>52</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="F77" t="s">
         <v>336</v>
       </c>
-      <c r="G77" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I77" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+      <c r="G77" t="s">
+        <v>1</v>
+      </c>
+      <c r="I77" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="B79" s="7" t="s">
+      <c r="A79" t="b">
+        <v>1</v>
+      </c>
+      <c r="B79" t="s">
         <v>340</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" t="s">
         <v>380</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D79" t="s">
         <v>471</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E79" t="s">
         <v>30</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="F79" t="s">
         <v>32</v>
       </c>
-      <c r="G79" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H79" s="7" t="s">
+      <c r="G79" t="s">
+        <v>6</v>
+      </c>
+      <c r="H79" t="s">
         <v>175</v>
       </c>
-      <c r="I79" s="7" t="s">
+      <c r="I79" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="B80" s="7" t="s">
+      <c r="A80" t="b">
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
         <v>340</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" t="s">
         <v>380</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" t="s">
         <v>471</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="E80" t="s">
         <v>30</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="F80" t="s">
         <v>33</v>
       </c>
-      <c r="G80" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H80" s="7" t="s">
+      <c r="G80" t="s">
+        <v>6</v>
+      </c>
+      <c r="H80" t="s">
         <v>175</v>
       </c>
-      <c r="I80" s="7" t="s">
+      <c r="I80" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="83" ht="13.2" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="84" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="84" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14852,10 +14850,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE141AD7-E981-4F7F-9AFC-8CFB9B08DF1A}">
-  <dimension ref="A2:J294"/>
+  <dimension ref="A2:J308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C253" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H264" sqref="H264"/>
+    <sheetView tabSelected="1" topLeftCell="C265" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H302" sqref="H302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -21126,7 +21124,7 @@
       <c r="G269" t="s">
         <v>6</v>
       </c>
-      <c r="H269" s="7" t="s">
+      <c r="H269" t="s">
         <v>420</v>
       </c>
       <c r="I269" t="s">
@@ -21365,32 +21363,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A278" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="B278" s="7" t="s">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A278" t="b">
+        <v>1</v>
+      </c>
+      <c r="B278" t="s">
         <v>418</v>
       </c>
-      <c r="C278" s="7" t="s">
+      <c r="C278" t="s">
         <v>182</v>
       </c>
-      <c r="D278" s="7" t="s">
+      <c r="D278" t="s">
         <v>419</v>
       </c>
-      <c r="E278" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F278" s="7" t="s">
+      <c r="E278" t="s">
+        <v>21</v>
+      </c>
+      <c r="F278" t="s">
         <v>194</v>
       </c>
-      <c r="G278" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H278" s="7" t="s">
+      <c r="G278" t="s">
+        <v>6</v>
+      </c>
+      <c r="H278" t="s">
         <v>474</v>
       </c>
-      <c r="I278" s="7" t="s">
+      <c r="I278" t="s">
         <v>2</v>
       </c>
     </row>
@@ -21416,7 +21414,7 @@
       <c r="G280" t="s">
         <v>6</v>
       </c>
-      <c r="H280" s="7" t="s">
+      <c r="H280" t="s">
         <v>420</v>
       </c>
       <c r="I280" t="s">
@@ -21445,7 +21443,7 @@
       <c r="G281" t="s">
         <v>6</v>
       </c>
-      <c r="H281" s="7" t="s">
+      <c r="H281" t="s">
         <v>420</v>
       </c>
       <c r="I281" t="s">
@@ -21474,7 +21472,7 @@
       <c r="G282" t="s">
         <v>6</v>
       </c>
-      <c r="H282" s="7" t="s">
+      <c r="H282" t="s">
         <v>420</v>
       </c>
       <c r="I282" t="s">
@@ -21503,7 +21501,7 @@
       <c r="G283" t="s">
         <v>6</v>
       </c>
-      <c r="H283" s="7" t="s">
+      <c r="H283" t="s">
         <v>475</v>
       </c>
       <c r="I283" t="s">
@@ -21532,7 +21530,7 @@
       <c r="G284" t="s">
         <v>6</v>
       </c>
-      <c r="H284" s="7" t="s">
+      <c r="H284" t="s">
         <v>420</v>
       </c>
       <c r="I284" t="s">
@@ -21561,7 +21559,7 @@
       <c r="G285" t="s">
         <v>6</v>
       </c>
-      <c r="H285" s="7" t="s">
+      <c r="H285" t="s">
         <v>420</v>
       </c>
       <c r="I285" t="s">
@@ -21590,7 +21588,7 @@
       <c r="G286" t="s">
         <v>6</v>
       </c>
-      <c r="H286" s="7" t="s">
+      <c r="H286" t="s">
         <v>475</v>
       </c>
       <c r="I286" t="s">
@@ -21619,7 +21617,7 @@
       <c r="G287" t="s">
         <v>6</v>
       </c>
-      <c r="H287" s="7" t="s">
+      <c r="H287" t="s">
         <v>475</v>
       </c>
       <c r="I287" t="s">
@@ -21648,7 +21646,7 @@
       <c r="G288" t="s">
         <v>6</v>
       </c>
-      <c r="H288" s="7" t="s">
+      <c r="H288" t="s">
         <v>475</v>
       </c>
       <c r="I288" t="s">
@@ -21677,7 +21675,7 @@
       <c r="G289" t="s">
         <v>6</v>
       </c>
-      <c r="H289" s="7" t="s">
+      <c r="H289" t="s">
         <v>475</v>
       </c>
       <c r="I289" t="s">
@@ -21735,7 +21733,7 @@
       <c r="G291" t="s">
         <v>6</v>
       </c>
-      <c r="H291" s="7" t="s">
+      <c r="H291" t="s">
         <v>420</v>
       </c>
       <c r="I291" t="s">
@@ -21798,6 +21796,41 @@
       </c>
       <c r="I294" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="H302" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="H303" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="H304" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="305" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H305" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="306" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H306" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="307" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H307" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="308" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H308" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
